--- a/data/trans_orig/P04C04_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>324206</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>293642</v>
+        <v>294682</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>351737</v>
+        <v>350383</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.79842633969233</v>
+        <v>0.7984263396923297</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7231571324744991</v>
+        <v>0.7257180462600821</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8662268766288108</v>
+        <v>0.8628925605315168</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -762,19 +762,19 @@
         <v>313392</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>293203</v>
+        <v>292524</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328477</v>
+        <v>329585</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8645009669397097</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8088090337766517</v>
+        <v>0.8069348602770251</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9061147438261939</v>
+        <v>0.9091712073623244</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>321</v>
@@ -783,19 +783,19 @@
         <v>637598</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>599720</v>
+        <v>599780</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>667459</v>
+        <v>668453</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.829591914497504</v>
+        <v>0.8295919144975041</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7803083502217898</v>
+        <v>0.78038653000818</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8684452619581925</v>
+        <v>0.8697381701479983</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23230</v>
+        <v>17121</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008410716900695668</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05720873118535109</v>
+        <v>0.04216307270152101</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>7813</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2438</v>
+        <v>2223</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20176</v>
+        <v>19429</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02155352132233037</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006725717432250237</v>
+        <v>0.006130850319977743</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05565590161208769</v>
+        <v>0.05359675583859969</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>11229</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4095</v>
+        <v>3645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27154</v>
+        <v>24244</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0146098143669394</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005327804510102211</v>
+        <v>0.004743129922091289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03533046974473964</v>
+        <v>0.03154440363671427</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>78435</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52815</v>
+        <v>52626</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>109298</v>
+        <v>107102</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1931629434069745</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1300691355579386</v>
+        <v>0.1296023661207453</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.269169098910224</v>
+        <v>0.2637612476541855</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -904,19 +904,19 @@
         <v>41307</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27103</v>
+        <v>26470</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60740</v>
+        <v>60629</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1139455117379599</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07476462943337786</v>
+        <v>0.07301757842988921</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.167552890161447</v>
+        <v>0.1672468596573408</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -925,19 +925,19 @@
         <v>119742</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>89836</v>
+        <v>89737</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>156541</v>
+        <v>155022</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1557982711355564</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1168877199645409</v>
+        <v>0.1167585716221033</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2036790445855647</v>
+        <v>0.2017018951644683</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>419444</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>399454</v>
+        <v>395103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>437066</v>
+        <v>434191</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8795412135794237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8376231526331149</v>
+        <v>0.8284997720361296</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.916493064747762</v>
+        <v>0.9104644701348853</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>396</v>
@@ -1050,19 +1050,19 @@
         <v>435498</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>419154</v>
+        <v>419984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>448987</v>
+        <v>449728</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8727632635543334</v>
+        <v>0.8727632635543335</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8400091672499059</v>
+        <v>0.8416707803797815</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8997947882864886</v>
+        <v>0.9012794153224484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>662</v>
@@ -1071,19 +1071,19 @@
         <v>854943</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>830133</v>
+        <v>827156</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>879213</v>
+        <v>876065</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8760754988576973</v>
+        <v>0.8760754988576974</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8506523107010231</v>
+        <v>0.8476021590354904</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9009459244896539</v>
+        <v>0.8977192975571537</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>11249</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4523</v>
+        <v>4734</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22106</v>
+        <v>24101</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02358771799395849</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009483660966602823</v>
+        <v>0.009926849704840481</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04635389206289284</v>
+        <v>0.05053870402911619</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1121,19 +1121,19 @@
         <v>3629</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8892</v>
+        <v>9089</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007272594994200966</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001846887334340032</v>
+        <v>0.001836573340405268</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0178205579997557</v>
+        <v>0.01821415596571785</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1142,19 +1142,19 @@
         <v>14878</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7002</v>
+        <v>7720</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25632</v>
+        <v>26641</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01524543725159162</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0071750734702756</v>
+        <v>0.007910455551138829</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02626551252064982</v>
+        <v>0.02729979437793902</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>46197</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30468</v>
+        <v>33029</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63687</v>
+        <v>68443</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09687106842661782</v>
+        <v>0.0968710684266178</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06388990346554357</v>
+        <v>0.06925907856000432</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1335462897188486</v>
+        <v>0.1435193357070011</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -1192,19 +1192,19 @@
         <v>59861</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46152</v>
+        <v>46292</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75638</v>
+        <v>75476</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1199641414514655</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09249201304871703</v>
+        <v>0.09277217553393877</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1515836450273515</v>
+        <v>0.151257238337949</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -1213,19 +1213,19 @@
         <v>106058</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84333</v>
+        <v>84884</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130273</v>
+        <v>131597</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.108679063890711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08641794088867717</v>
+        <v>0.08698174945701745</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1334930591904423</v>
+        <v>0.1348500013393349</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>537268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>518621</v>
+        <v>519619</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>553705</v>
+        <v>555122</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8685609142926708</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.838414586029721</v>
+        <v>0.8400285799627898</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8951325217653247</v>
+        <v>0.8974240439700656</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>712</v>
@@ -1338,19 +1338,19 @@
         <v>529958</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>515151</v>
+        <v>513323</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>544926</v>
+        <v>543141</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8527380803147357</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8289131957871174</v>
+        <v>0.8259716998057479</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8768232480091165</v>
+        <v>0.873950286503134</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1180</v>
@@ -1359,19 +1359,19 @@
         <v>1067226</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1041999</v>
+        <v>1044007</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1090203</v>
+        <v>1089595</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8606309660829309</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8402868559710195</v>
+        <v>0.8419062291418125</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8791594772324994</v>
+        <v>0.8786691539139532</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>8949</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3806</v>
+        <v>3797</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17830</v>
+        <v>17706</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01446751064859605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006152439802068352</v>
+        <v>0.006137695780067036</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02882515683488099</v>
+        <v>0.02862406020936259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1409,19 +1409,19 @@
         <v>8927</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4697</v>
+        <v>4637</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14938</v>
+        <v>14611</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01436363458712699</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007558113726210443</v>
+        <v>0.007461007210186582</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02403628217675918</v>
+        <v>0.02351052496799224</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1430,19 +1430,19 @@
         <v>17876</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10725</v>
+        <v>11191</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27949</v>
+        <v>27676</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01441545096138514</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008649107519313512</v>
+        <v>0.009024851549231371</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02253889146197072</v>
+        <v>0.02231842065973859</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>72355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56789</v>
+        <v>56701</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90309</v>
+        <v>89511</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1169715750587332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09180680465119691</v>
+        <v>0.09166468736391099</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1459964155042859</v>
+        <v>0.1447052360864463</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -1480,19 +1480,19 @@
         <v>82593</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>68696</v>
+        <v>70317</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95948</v>
+        <v>98022</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1328982850981372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1105360670700239</v>
+        <v>0.1131441542138416</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1543868165666765</v>
+        <v>0.1577243144320622</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>191</v>
@@ -1501,19 +1501,19 @@
         <v>154949</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>133269</v>
+        <v>134405</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>179190</v>
+        <v>178618</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1249535829556838</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1074705568585736</v>
+        <v>0.1083869046521803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1445023404446468</v>
+        <v>0.1440405926890479</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>584205</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>562740</v>
+        <v>559479</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>602658</v>
+        <v>602615</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8365380550218218</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8058017365357327</v>
+        <v>0.8011327476807595</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8629610813040083</v>
+        <v>0.8629008595728039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>947</v>
@@ -1626,19 +1626,19 @@
         <v>620389</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>605370</v>
+        <v>603749</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>635926</v>
+        <v>634206</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8434325803026639</v>
+        <v>0.8434325803026637</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8230145239450941</v>
+        <v>0.820811238740314</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8645555755767862</v>
+        <v>0.8622174059441731</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1495</v>
@@ -1647,19 +1647,19 @@
         <v>1204593</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1176037</v>
+        <v>1181256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1228551</v>
+        <v>1228746</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8400747313225174</v>
+        <v>0.8400747313225175</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8201595283673169</v>
+        <v>0.8237991911056604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8567826699934475</v>
+        <v>0.8569186729153904</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>13869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7729</v>
+        <v>7699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23963</v>
+        <v>23983</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01985876222710716</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01106693575809694</v>
+        <v>0.0110243548267399</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03431323147268895</v>
+        <v>0.03434203492588508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -1697,19 +1697,19 @@
         <v>11540</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7132</v>
+        <v>7259</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18763</v>
+        <v>18060</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01568901648777184</v>
+        <v>0.01568901648777183</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009696347457765949</v>
+        <v>0.009868437049278055</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02550823656482891</v>
+        <v>0.02455362059572617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -1718,19 +1718,19 @@
         <v>25409</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17414</v>
+        <v>18092</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36699</v>
+        <v>36562</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01771981279469117</v>
+        <v>0.01771981279469118</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01214421176455942</v>
+        <v>0.01261746247644505</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02559359679021214</v>
+        <v>0.02549782227707577</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>100287</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>81865</v>
+        <v>84527</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>120212</v>
+        <v>122655</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1436031827510712</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.117224112389051</v>
+        <v>0.1210366429081755</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1721348281807883</v>
+        <v>0.1756326974405107</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>174</v>
@@ -1768,19 +1768,19 @@
         <v>103623</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>90087</v>
+        <v>90209</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>118913</v>
+        <v>120723</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1408784032095646</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1224753213191833</v>
+        <v>0.1226410466512918</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1616651082066597</v>
+        <v>0.1641262743927079</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>276</v>
@@ -1789,19 +1789,19 @@
         <v>203910</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>181334</v>
+        <v>179542</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>230440</v>
+        <v>226281</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1422054558827913</v>
+        <v>0.1422054558827914</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1264613118846454</v>
+        <v>0.1252114831425072</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.160706907465274</v>
+        <v>0.1578067145215556</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>523045</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>503311</v>
+        <v>506031</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>537393</v>
+        <v>539215</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8611813259724107</v>
+        <v>0.8611813259724105</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8286905799874519</v>
+        <v>0.833168899730367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8848054975923141</v>
+        <v>0.8878064268453792</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>827</v>
@@ -1914,19 +1914,19 @@
         <v>512017</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>498378</v>
+        <v>499266</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>524077</v>
+        <v>526500</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8454084627641785</v>
+        <v>0.8454084627641784</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8228897510151796</v>
+        <v>0.8243554476090111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8653211162628087</v>
+        <v>0.8693222067831466</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1395</v>
@@ -1935,19 +1935,19 @@
         <v>1035061</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1013240</v>
+        <v>1013232</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1056199</v>
+        <v>1056035</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8533060290202797</v>
+        <v>0.8533060290202799</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8353168562134583</v>
+        <v>0.8353100292989107</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8707323900835156</v>
+        <v>0.8705968268064038</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>4424</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1392</v>
+        <v>1433</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9991</v>
+        <v>11245</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007284013546894585</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002292451012320562</v>
+        <v>0.002359903673800718</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01645049182076828</v>
+        <v>0.01851389540651695</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1988,16 +1988,16 @@
         <v>480</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5247</v>
+        <v>5198</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.003212503160935485</v>
+        <v>0.003212503160935484</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0007923374999284342</v>
+        <v>0.0007923516165585522</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.008663970164664787</v>
+        <v>0.008582832986338315</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -2006,19 +2006,19 @@
         <v>6370</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3126</v>
+        <v>3110</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13652</v>
+        <v>14293</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.005251132584839574</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002577247306281763</v>
+        <v>0.002564042464532748</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01125474207310716</v>
+        <v>0.01178328575150174</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>79888</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65174</v>
+        <v>64484</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97709</v>
+        <v>97314</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1315346604806948</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.107307331131619</v>
+        <v>0.1061707173598681</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1608757067838032</v>
+        <v>0.1602247759702577</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>167</v>
@@ -2056,19 +2056,19 @@
         <v>91682</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79347</v>
+        <v>77994</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>104650</v>
+        <v>104640</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1513790340748861</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1310118268508737</v>
+        <v>0.1287782786997999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1727907885422537</v>
+        <v>0.1727740833075531</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>255</v>
@@ -2077,19 +2077,19 @@
         <v>171570</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>150910</v>
+        <v>151958</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>194141</v>
+        <v>193209</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1414428383948808</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1244107076766027</v>
+        <v>0.1252741361986602</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1600502575427705</v>
+        <v>0.1592815698266108</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>344758</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>330892</v>
+        <v>331937</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>355616</v>
+        <v>355670</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8481788152343552</v>
+        <v>0.848178815234355</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8140656576948461</v>
+        <v>0.8166350218708526</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8748897616201649</v>
+        <v>0.875022863598523</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>690</v>
@@ -2202,19 +2202,19 @@
         <v>370337</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>358544</v>
+        <v>358215</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>381265</v>
+        <v>379935</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8444437624586765</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8175536120281598</v>
+        <v>0.8168048292743564</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8693628247919456</v>
+        <v>0.8663303852707464</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1172</v>
@@ -2226,16 +2226,16 @@
         <v>697578</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>730974</v>
+        <v>731018</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.8462403735574702</v>
+        <v>0.8462403735574703</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.825510174875965</v>
+        <v>0.8255108654463827</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8650310648271993</v>
+        <v>0.8650829793559681</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>2836</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>673</v>
+        <v>984</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6551</v>
+        <v>6824</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.006977467469563305</v>
+        <v>0.006977467469563304</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001656921571866543</v>
+        <v>0.002419639570142371</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01611780606105575</v>
+        <v>0.01678762251347213</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2273,19 +2273,19 @@
         <v>4709</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2020</v>
+        <v>2167</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8779</v>
+        <v>8689</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01073829198394215</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004606046622532454</v>
+        <v>0.004941815974482012</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02001846560391761</v>
+        <v>0.01981162859887932</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2294,19 +2294,19 @@
         <v>7545</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3916</v>
+        <v>4178</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12896</v>
+        <v>12734</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008929284328910768</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004633909283780397</v>
+        <v>0.004943989100000081</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01526099568341824</v>
+        <v>0.01506900328776844</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>58874</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>48460</v>
+        <v>47948</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72384</v>
+        <v>71209</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1448437172960817</v>
+        <v>0.1448437172960816</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1192223834310367</v>
+        <v>0.1179619081263654</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.178080736539419</v>
+        <v>0.1751897364577495</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>128</v>
@@ -2344,19 +2344,19 @@
         <v>63511</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>53709</v>
+        <v>54662</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>75213</v>
+        <v>76254</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1448179455573814</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1224674386298537</v>
+        <v>0.1246397490085364</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1715017753946875</v>
+        <v>0.1738748427920255</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>211</v>
@@ -2365,19 +2365,19 @@
         <v>122385</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>106642</v>
+        <v>105654</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>138531</v>
+        <v>139138</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.144830342113619</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1261996469630947</v>
+        <v>0.1250302973316836</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1639366600977713</v>
+        <v>0.164655620968524</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>259124</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>247794</v>
+        <v>247472</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>270211</v>
+        <v>268912</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8390830081144045</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8023945142807642</v>
+        <v>0.8013524997388991</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8749857103704032</v>
+        <v>0.8707787826592495</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>731</v>
@@ -2490,19 +2490,19 @@
         <v>387937</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>375355</v>
+        <v>376066</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>398616</v>
+        <v>399281</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8382012964380164</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.811016333721877</v>
+        <v>0.8125522931143279</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8612746878173106</v>
+        <v>0.8627109425165316</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1118</v>
@@ -2511,19 +2511,19 @@
         <v>647061</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>630806</v>
+        <v>630093</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>660453</v>
+        <v>661496</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8385541663705903</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8174879515961169</v>
+        <v>0.8165640546611493</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8559088145223314</v>
+        <v>0.8572615211173135</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>3192</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>958</v>
+        <v>665</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7799</v>
+        <v>7337</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01033537829755971</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003103706720272763</v>
+        <v>0.002152865397647996</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02525386740085974</v>
+        <v>0.02375871610088043</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2561,19 +2561,19 @@
         <v>3526</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1290</v>
+        <v>1155</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7547</v>
+        <v>7262</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.00761953531108684</v>
+        <v>0.007619535311086841</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002786976716348975</v>
+        <v>0.002496195738738251</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01630701039419269</v>
+        <v>0.01569071456535224</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -2582,19 +2582,19 @@
         <v>6718</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3049</v>
+        <v>3218</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11714</v>
+        <v>11422</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008706443148628118</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003950951023807879</v>
+        <v>0.004170319715858557</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01518108561083634</v>
+        <v>0.01480220122785327</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>46502</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>35633</v>
+        <v>36813</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>57535</v>
+        <v>58065</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1505816135880358</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1153850162252765</v>
+        <v>0.1192069243084337</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1863076374955753</v>
+        <v>0.1880231873947835</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>141</v>
@@ -2632,19 +2632,19 @@
         <v>71357</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>60496</v>
+        <v>60166</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>83093</v>
+        <v>82919</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1541791682508967</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1307108697907778</v>
+        <v>0.1299973947639755</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1795352231539709</v>
+        <v>0.1791610495361738</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>206</v>
@@ -2653,19 +2653,19 @@
         <v>117860</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>104211</v>
+        <v>104233</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>133695</v>
+        <v>134858</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1527393904807816</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1350508646963792</v>
+        <v>0.135080523612055</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1732613770799981</v>
+        <v>0.1747679232610197</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>2992049</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2941290</v>
+        <v>2943213</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3039225</v>
+        <v>3038612</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8494054207372825</v>
+        <v>0.8494054207372826</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8349953531951758</v>
+        <v>0.8355413723873623</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8627979423539923</v>
+        <v>0.8626239658572936</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4483</v>
@@ -2778,19 +2778,19 @@
         <v>3169527</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3131802</v>
+        <v>3130313</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3210096</v>
+        <v>3207716</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8507537388591976</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8406276806522689</v>
+        <v>0.8402279572980356</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.861643088963576</v>
+        <v>0.8610041881643542</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7343</v>
@@ -2799,19 +2799,19 @@
         <v>6161577</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6092755</v>
+        <v>6104942</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6218347</v>
+        <v>6227823</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8500984640631123</v>
+        <v>0.8500984640631124</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.840603266468588</v>
+        <v>0.8422847297069804</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8579309465735083</v>
+        <v>0.8592383064862065</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>47934</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>34811</v>
+        <v>34635</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>66711</v>
+        <v>65520</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01360775291807687</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.009882468949823267</v>
+        <v>0.009832328272908246</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01893841741470511</v>
+        <v>0.01860042328050596</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>55</v>
@@ -2849,19 +2849,19 @@
         <v>42091</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>31667</v>
+        <v>31930</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>57841</v>
+        <v>56903</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01129781153060225</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.008499837378013294</v>
+        <v>0.008570577761949435</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01552539414029025</v>
+        <v>0.01527382406794407</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>96</v>
@@ -2870,19 +2870,19 @@
         <v>90024</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>70445</v>
+        <v>70258</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>113406</v>
+        <v>112187</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01242042966281028</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.009719074972090637</v>
+        <v>0.009693318457536505</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01564634520760665</v>
+        <v>0.01547814657206611</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>482539</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>437789</v>
+        <v>435728</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>529732</v>
+        <v>530884</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1369868263446406</v>
+        <v>0.1369868263446405</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.124282766536773</v>
+        <v>0.1236978411244491</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1503843750213619</v>
+        <v>0.1507112988832647</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>814</v>
@@ -2920,19 +2920,19 @@
         <v>513934</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>476829</v>
+        <v>479630</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>551101</v>
+        <v>555018</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1379484496102001</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1279889476781072</v>
+        <v>0.1287405746267332</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1479245795046733</v>
+        <v>0.1489760688035386</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1279</v>
@@ -2941,19 +2941,19 @@
         <v>996473</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>940753</v>
+        <v>940546</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1061311</v>
+        <v>1055359</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1374811062740774</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1297935086300394</v>
+        <v>0.1297649217425024</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1464266800192061</v>
+        <v>0.1456054436881759</v>
       </c>
     </row>
     <row r="35">
